--- a/Biochemistry/Hydroxyproline Assay/RecipeSheets/Working_Solns/WorkingOxidationBuffer_soln_recipe.xlsx
+++ b/Biochemistry/Hydroxyproline Assay/RecipeSheets/Working_Solns/WorkingOxidationBuffer_soln_recipe.xlsx
@@ -1,24 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20408"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atya222\Documents\GitHub\Protocols\Biochemistry\Hydroxyproline Assay\RecipeSheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atya222\Documents\GitHub\Protocols\Biochemistry\Hydroxyproline Assay\RecipeSheets\Working_Solns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F4EF03-DB90-4D9E-9112-7580323A4CF5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30438EF7-9DC3-4F91-92B1-2E620DBC214D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Nephrology" sheetId="1" r:id="rId1"/>
-    <sheet name="Brown, et al." sheetId="3" r:id="rId2"/>
+    <sheet name="Brown, et al." sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Brown, et al.'!$A$1:$L$6</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Nephrology!$A$1:$J$6</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Brown, et al.'!$A$1:$L$6</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -30,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Working Oxidation Buffer</t>
   </si>
@@ -74,30 +72,7 @@
     <t>Amount added (g)</t>
   </si>
   <si>
-    <t>Chloramine T Solution</t>
-  </si>
-  <si>
-    <t>20%
-(1 part of 5)</t>
-  </si>
-  <si>
-    <t>2mL</t>
-  </si>
-  <si>
-    <t>1mL</t>
-  </si>
-  <si>
     <t>Oxidation Buffer</t>
-  </si>
-  <si>
-    <t>80%
-(4 parts of 5)</t>
-  </si>
-  <si>
-    <t>8mL</t>
-  </si>
-  <si>
-    <t>4mL</t>
   </si>
   <si>
     <t>Amount for
@@ -175,7 +150,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -384,50 +359,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -475,39 +411,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -534,104 +437,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62684309-4EB2-4536-B698-35501AB96719}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2295525" y="76200"/>
-          <a:ext cx="2266950" cy="428625"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Prepare</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t> fresh before each assay.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Protect from light.</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1025,132 +830,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:J6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="31"/>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="9"/>
-    </row>
-    <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" s="29" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" s="25"/>
-    </row>
-    <row r="6" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="7"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6FBD9E1-27E2-487E-9B97-C0E968036999}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -1176,10 +855,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
+      <c r="B1" s="20"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1216,10 +895,10 @@
         <v>9</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="J4" s="12" t="s">
         <v>10</v>
@@ -1233,10 +912,10 @@
     </row>
     <row r="5" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
@@ -1244,25 +923,25 @@
       <c r="F5" s="16"/>
       <c r="G5" s="15"/>
       <c r="H5" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="17" t="s">
-        <v>30</v>
-      </c>
       <c r="J5" s="17" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="K5" s="17" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="L5" s="18"/>
     </row>
     <row r="6" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -1270,16 +949,16 @@
       <c r="F6" s="4"/>
       <c r="G6" s="3"/>
       <c r="H6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="5" t="s">
-        <v>31</v>
-      </c>
       <c r="J6" s="5" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7"/>
     </row>
@@ -1305,6 +984,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100965EA08FA511AE4C9FFF632E6536ED13" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="482b41a7d5b6e1869d3096739eaa397a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a" xmlns:ns3="6cbc0c5a-d948-46e5-8624-1bad210f77c7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="183c2dbcc88402a537c49c71030961e9" ns2:_="" ns3:_="">
     <xsd:import namespace="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a"/>
@@ -1553,15 +1241,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33AFEA7C-ECB0-4A51-9E17-02E120CDEEE9}">
   <ds:schemaRefs>
@@ -1574,6 +1253,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C3833AD-3BAD-44F9-A428-5312EFC8FF4F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD90F83C-A46B-4AAE-8EB7-3E24C248DBB8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1590,12 +1277,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C3833AD-3BAD-44F9-A428-5312EFC8FF4F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>